--- a/output/simslope_analysis.xlsx
+++ b/output/simslope_analysis.xlsx
@@ -41,15 +41,15 @@
     <t xml:space="preserve">p.starts</t>
   </si>
   <si>
+    <t xml:space="preserve">p.val</t>
+  </si>
+  <si>
     <t xml:space="preserve">b.se</t>
   </si>
   <si>
     <t xml:space="preserve">ci</t>
   </si>
   <si>
-    <t xml:space="preserve">p.val</t>
-  </si>
-  <si>
     <t xml:space="preserve">b.ci.se</t>
   </si>
   <si>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
+    <t xml:space="preserve">_p_ &lt; .001</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.05 (0.005)***</t>
   </si>
   <si>
     <t xml:space="preserve">-0.06, -0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_p_ &lt; .001</t>
   </si>
   <si>
     <t xml:space="preserve">b (95% CI) = -0.05 (-0.06, -0.04), SE b = 0.005, p &lt; .001</t>
@@ -634,13 +634,13 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
@@ -675,13 +675,13 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
@@ -716,13 +716,13 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -757,13 +757,13 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
@@ -798,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -839,13 +839,13 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -880,13 +880,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
@@ -921,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>43</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>45</v>
@@ -962,13 +962,13 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -1003,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>49</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
@@ -1044,13 +1044,13 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
       </c>
       <c r="M13" t="s">
         <v>54</v>
@@ -1085,13 +1085,13 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>56</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>57</v>
@@ -1126,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>53</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
